--- a/出库/床垫的出库(更新4.16).xlsx
+++ b/出库/床垫的出库(更新4.16).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Uoolatex\出库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
@@ -25,7 +20,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="1" shapeId="0">
+    <comment ref="K20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="1" shapeId="0">
+    <comment ref="L22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="1" shapeId="0">
+    <comment ref="D38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O94" authorId="1" shapeId="0">
+    <comment ref="O94" authorId="1">
       <text>
         <r>
           <rPr>
@@ -330,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,15 +802,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M101" sqref="M101"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -825,7 +820,7 @@
     <col min="16" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -919,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -966,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>12.18</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>12.18</v>
       </c>
@@ -1154,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>12.19</v>
       </c>
@@ -1201,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>12.19</v>
       </c>
@@ -1261,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1270,7 +1265,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="1" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1617,7 +1612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2007,7 +2002,7 @@
       </c>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -2064,7 +2059,7 @@
       </c>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2112,7 +2107,7 @@
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -2173,7 +2168,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -2221,7 +2216,7 @@
       </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -2281,7 +2276,7 @@
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -2329,7 +2324,7 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -2390,7 +2385,7 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -2438,7 +2433,7 @@
       </c>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -2499,7 +2494,7 @@
       </c>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -2547,7 +2542,7 @@
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2608,7 +2603,7 @@
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
@@ -2628,7 +2623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2689,7 +2684,7 @@
       </c>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2701,7 +2696,7 @@
       </c>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2762,7 +2757,7 @@
       </c>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2771,7 +2766,7 @@
       </c>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2832,7 +2827,7 @@
       </c>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2880,7 +2875,7 @@
       </c>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2941,7 +2936,7 @@
       </c>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2989,7 +2984,7 @@
       </c>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -3050,7 +3045,7 @@
       </c>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3060,7 @@
       </c>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3126,7 +3121,7 @@
       </c>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3138,7 +3133,7 @@
       </c>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -3199,7 +3194,7 @@
       </c>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
@@ -3211,7 +3206,7 @@
       </c>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
@@ -3272,7 +3267,7 @@
       </c>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +3276,7 @@
       </c>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -3342,7 +3337,7 @@
       </c>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16">
       <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3355,7 @@
       </c>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
@@ -3421,7 +3416,7 @@
       </c>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
@@ -3436,7 +3431,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -3497,7 +3492,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16">
       <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
@@ -3506,7 +3501,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
         <v>50</v>
       </c>
@@ -3567,7 +3562,7 @@
       </c>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -3576,7 +3571,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
         <v>51</v>
       </c>
@@ -3637,7 +3632,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
         <v>52</v>
       </c>
@@ -3652,7 +3647,7 @@
       </c>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -3713,7 +3708,7 @@
       </c>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
@@ -3725,7 +3720,7 @@
       </c>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
@@ -3786,7 +3781,7 @@
       </c>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
         <v>54</v>
       </c>
@@ -3795,7 +3790,7 @@
       </c>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
         <v>54</v>
       </c>
@@ -3856,7 +3851,7 @@
       </c>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +3863,7 @@
       </c>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
         <v>55</v>
       </c>
@@ -3929,7 +3924,7 @@
       </c>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
@@ -3938,7 +3933,7 @@
       </c>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
         <v>56</v>
       </c>
@@ -3999,7 +3994,7 @@
       </c>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
         <v>57</v>
       </c>
@@ -4011,7 +4006,7 @@
       </c>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
         <v>57</v>
       </c>
@@ -4072,7 +4067,7 @@
       </c>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
         <v>58</v>
       </c>
@@ -4087,7 +4082,7 @@
       </c>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
         <v>58</v>
       </c>
@@ -4148,7 +4143,7 @@
       </c>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
         <v>59</v>
       </c>
@@ -4157,7 +4152,7 @@
       </c>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
         <v>59</v>
       </c>
@@ -4218,7 +4213,7 @@
       </c>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
         <v>60</v>
       </c>
@@ -4233,7 +4228,7 @@
       </c>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
         <v>60</v>
       </c>
@@ -4294,7 +4289,7 @@
       </c>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
         <v>61</v>
       </c>
@@ -4303,7 +4298,7 @@
       </c>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16">
       <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
@@ -4364,7 +4359,7 @@
       </c>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16">
       <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
@@ -4382,7 +4377,7 @@
       </c>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
         <v>62</v>
       </c>
@@ -4443,7 +4438,7 @@
       </c>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16">
       <c r="A86" s="2" t="s">
         <v>63</v>
       </c>
@@ -4464,7 +4459,7 @@
       </c>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16">
       <c r="A87" s="2" t="s">
         <v>63</v>
       </c>
@@ -4525,7 +4520,7 @@
       </c>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16">
       <c r="A88" s="2" t="s">
         <v>64</v>
       </c>
@@ -4540,7 +4535,7 @@
       </c>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16">
       <c r="A89" s="2" t="s">
         <v>64</v>
       </c>
@@ -4601,7 +4596,7 @@
       </c>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16">
       <c r="A90" s="2" t="s">
         <v>65</v>
       </c>
@@ -4619,7 +4614,7 @@
       </c>
       <c r="P90" s="3"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16">
       <c r="A91" s="2" t="s">
         <v>65</v>
       </c>
@@ -4680,7 +4675,7 @@
       </c>
       <c r="P91" s="3"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16">
       <c r="A92" s="2" t="s">
         <v>66</v>
       </c>
@@ -4689,7 +4684,7 @@
       </c>
       <c r="P92" s="3"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16">
       <c r="A93" s="2" t="s">
         <v>66</v>
       </c>
@@ -4750,7 +4745,7 @@
       </c>
       <c r="P93" s="3"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16">
       <c r="A94" s="2" t="s">
         <v>67</v>
       </c>
@@ -4783,7 +4778,7 @@
       </c>
       <c r="P94" s="3"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16">
       <c r="A95" s="2" t="s">
         <v>67</v>
       </c>
@@ -4843,7 +4838,7 @@
       </c>
       <c r="P95" s="3"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16">
       <c r="A96" s="15" t="s">
         <v>70</v>
       </c>
@@ -4875,7 +4870,7 @@
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16">
       <c r="A97" s="15"/>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4934,7 +4929,7 @@
       </c>
       <c r="P97" s="14"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16">
       <c r="A98" s="2" t="s">
         <v>68</v>
       </c>
@@ -4964,7 +4959,7 @@
       </c>
       <c r="P98" s="14"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16">
       <c r="A99" s="2" t="s">
         <v>68</v>
       </c>
@@ -5025,7 +5020,7 @@
       </c>
       <c r="P99" s="14"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16">
       <c r="A100" s="15" t="s">
         <v>69</v>
       </c>
@@ -5065,7 +5060,7 @@
       </c>
       <c r="P100" s="14"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16">
       <c r="A101" s="15" t="s">
         <v>69</v>
       </c>
